--- a/data/trans_dic/P14B35-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Clase-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.003084405391284971</v>
+        <v>0.003088257991214811</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02701382263065568</v>
+        <v>0.02555343318302336</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.03415829204897341</v>
+        <v>0.03406293402540801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01622137158458819</v>
+        <v>0.01970541765230858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06369277710938837</v>
+        <v>0.06166463948261931</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.005976105166876977</v>
+        <v>0.006029932291230036</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002667577117693996</v>
+        <v>0.002649668942277245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03120022228178075</v>
+        <v>0.02813535539007779</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03306332272625032</v>
+        <v>0.03523068025998792</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02518833560196061</v>
+        <v>0.02524121815150703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07035329503705703</v>
+        <v>0.06957410869005642</v>
       </c>
     </row>
     <row r="10">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007484949101920941</v>
+        <v>0.004582366249258104</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02239607711048421</v>
+        <v>0.01908627673009429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03717545012891576</v>
+        <v>0.03623533441084149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05393913320563502</v>
+        <v>0.05566712615770237</v>
       </c>
     </row>
     <row r="13">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01139630757848824</v>
+        <v>0.01083077946667222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002253319160951789</v>
+        <v>0.002249707544578951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02778428514763143</v>
+        <v>0.0283425272164459</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.032109471490631</v>
+        <v>0.03163592112150176</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01256114104514788</v>
+        <v>0.01251546589559127</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05545097866426361</v>
+        <v>0.05380310327449993</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.004106347453791848</v>
+        <v>0.004123406182555736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001106616327873519</v>
+        <v>0.001104597414321427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0129921816634221</v>
+        <v>0.01250058656283636</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02100381976625293</v>
+        <v>0.02070263319024465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01004887152339688</v>
+        <v>0.01004281359975949</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03062531243363449</v>
+        <v>0.02966278494234576</v>
       </c>
     </row>
     <row r="19">
@@ -901,7 +901,7 @@
         <v>0.003616320691218507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02620676864662589</v>
+        <v>0.0262067686466259</v>
       </c>
     </row>
     <row r="20">
@@ -913,13 +913,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.004565361109221727</v>
+        <v>0.004536977601248857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0008753486355432698</v>
+        <v>0.0009192812257217673</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01399533297167974</v>
+        <v>0.01445321112038476</v>
       </c>
     </row>
     <row r="21">
@@ -931,13 +931,13 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01604451847252999</v>
+        <v>0.01590364529854101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.009043916746652357</v>
+        <v>0.009153722097598221</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04720228385274703</v>
+        <v>0.04818747902260028</v>
       </c>
     </row>
     <row r="22">
@@ -973,13 +973,13 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.008927879367586673</v>
+        <v>0.008740776153121962</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002976708267206482</v>
+        <v>0.003011643085432275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02658250263664584</v>
+        <v>0.02663895076368162</v>
       </c>
     </row>
     <row r="24">
@@ -991,13 +991,13 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01629165682126751</v>
+        <v>0.01635560467879148</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.007460750039889947</v>
+        <v>0.007513726234412294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03905026056219333</v>
+        <v>0.03870131828852998</v>
       </c>
     </row>
     <row r="25">
@@ -1149,13 +1149,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13127</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="7">
@@ -1167,13 +1167,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>10707</v>
+        <v>10677</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5630</v>
+        <v>6839</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30951</v>
+        <v>29966</v>
       </c>
     </row>
     <row r="8">
@@ -1229,13 +1229,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>2020</v>
+        <v>2038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13138</v>
+        <v>11848</v>
       </c>
     </row>
     <row r="11">
@@ -1247,13 +1247,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>11176</v>
+        <v>11908</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9377</v>
+        <v>9397</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29625</v>
+        <v>29297</v>
       </c>
     </row>
     <row r="12">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1403</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15">
@@ -1327,13 +1327,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5826</v>
+        <v>4965</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6176</v>
+        <v>6020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10113</v>
+        <v>10437</v>
       </c>
     </row>
     <row r="16">
@@ -1389,13 +1389,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>8715</v>
+        <v>8283</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23817</v>
+        <v>24295</v>
       </c>
     </row>
     <row r="19">
@@ -1407,13 +1407,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>24555</v>
+        <v>24193</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10374</v>
+        <v>10336</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47533</v>
+        <v>46120</v>
       </c>
     </row>
     <row r="20">
@@ -1469,13 +1469,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>3122</v>
+        <v>3135</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10765</v>
+        <v>10358</v>
       </c>
     </row>
     <row r="23">
@@ -1487,13 +1487,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>15968</v>
+        <v>15739</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7419</v>
+        <v>7414</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25377</v>
+        <v>24579</v>
       </c>
     </row>
     <row r="24">
@@ -1549,13 +1549,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>5065</v>
+        <v>5033</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>947</v>
+        <v>995</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11806</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>17799</v>
+        <v>17643</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9786</v>
+        <v>9905</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39820</v>
+        <v>40651</v>
       </c>
     </row>
     <row r="28">
@@ -1629,13 +1629,13 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>31658</v>
+        <v>30994</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10513</v>
+        <v>10636</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>96334</v>
+        <v>96538</v>
       </c>
     </row>
     <row r="31">
@@ -1647,13 +1647,13 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>57769</v>
+        <v>57996</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>26348</v>
+        <v>26535</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>141516</v>
+        <v>140252</v>
       </c>
     </row>
     <row r="32">
